--- a/data/ams_weekly_data/Nexlev/business_report_week4.xlsx
+++ b/data/ams_weekly_data/Nexlev/business_report_week4.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Other computers\My Laptop\D\Nitesh\Weekly Report - B2B + B2C\FastAPI\data\raw\sales\Week 4\Nexlev\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Other computers\My Laptop\D\Nitesh\Weekly Report - B2B + B2C\FastAPI\data\ams_weekly_data\Nexlev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C375C6A-8471-4215-A500-ACC52E147A39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E243055A-334F-492B-B0F8-AAC31AA1C457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3A9246C3-BF4A-4E28-B076-71105347B2BB}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="863" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="418">
   <si>
     <t>SKU</t>
   </si>
@@ -2120,11 +2120,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F65B8AA3-BBC4-4FEB-A37D-DCCEB521F066}">
-  <dimension ref="A1:W169"/>
+  <dimension ref="A1:W179"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -14127,6 +14125,206 @@
         <v>0</v>
       </c>
     </row>
+    <row r="170" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>295</v>
+      </c>
+      <c r="B170" t="s">
+        <v>296</v>
+      </c>
+      <c r="C170" t="s">
+        <v>297</v>
+      </c>
+      <c r="D170" t="s">
+        <v>297</v>
+      </c>
+      <c r="P170">
+        <v>5</v>
+      </c>
+      <c r="T170">
+        <v>4158.4799999999996</v>
+      </c>
+    </row>
+    <row r="171" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>179</v>
+      </c>
+      <c r="B171" t="s">
+        <v>180</v>
+      </c>
+      <c r="C171" t="s">
+        <v>181</v>
+      </c>
+      <c r="D171" t="s">
+        <v>181</v>
+      </c>
+      <c r="P171">
+        <v>2</v>
+      </c>
+      <c r="T171">
+        <v>1978.82</v>
+      </c>
+    </row>
+    <row r="172" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>323</v>
+      </c>
+      <c r="B172" t="s">
+        <v>324</v>
+      </c>
+      <c r="C172" t="s">
+        <v>325</v>
+      </c>
+      <c r="D172" t="s">
+        <v>325</v>
+      </c>
+      <c r="P172">
+        <v>1</v>
+      </c>
+      <c r="T172">
+        <v>1232.2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>307</v>
+      </c>
+      <c r="B173" t="s">
+        <v>308</v>
+      </c>
+      <c r="C173" t="s">
+        <v>309</v>
+      </c>
+      <c r="D173" t="s">
+        <v>309</v>
+      </c>
+      <c r="P173">
+        <v>1</v>
+      </c>
+      <c r="T173">
+        <v>862.86</v>
+      </c>
+    </row>
+    <row r="174" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>287</v>
+      </c>
+      <c r="B174" t="s">
+        <v>288</v>
+      </c>
+      <c r="C174" t="s">
+        <v>289</v>
+      </c>
+      <c r="D174" t="s">
+        <v>289</v>
+      </c>
+      <c r="P174">
+        <v>0</v>
+      </c>
+      <c r="T174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>27</v>
+      </c>
+      <c r="B175" t="s">
+        <v>28</v>
+      </c>
+      <c r="C175" t="s">
+        <v>29</v>
+      </c>
+      <c r="D175" t="s">
+        <v>29</v>
+      </c>
+      <c r="P175">
+        <v>0</v>
+      </c>
+      <c r="T175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>163</v>
+      </c>
+      <c r="B176" t="s">
+        <v>164</v>
+      </c>
+      <c r="C176" t="s">
+        <v>165</v>
+      </c>
+      <c r="D176" t="s">
+        <v>165</v>
+      </c>
+      <c r="P176">
+        <v>0</v>
+      </c>
+      <c r="T176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>55</v>
+      </c>
+      <c r="B177" t="s">
+        <v>56</v>
+      </c>
+      <c r="C177" t="s">
+        <v>57</v>
+      </c>
+      <c r="D177" t="s">
+        <v>57</v>
+      </c>
+      <c r="P177">
+        <v>0</v>
+      </c>
+      <c r="T177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>159</v>
+      </c>
+      <c r="B178" t="s">
+        <v>160</v>
+      </c>
+      <c r="C178" t="s">
+        <v>161</v>
+      </c>
+      <c r="D178" t="s">
+        <v>161</v>
+      </c>
+      <c r="P178">
+        <v>0</v>
+      </c>
+      <c r="T178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>91</v>
+      </c>
+      <c r="B179" t="s">
+        <v>92</v>
+      </c>
+      <c r="C179" t="s">
+        <v>93</v>
+      </c>
+      <c r="D179" t="s">
+        <v>93</v>
+      </c>
+      <c r="P179">
+        <v>0</v>
+      </c>
+      <c r="T179">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
